--- a/core/file/批量销假模板.xlsx
+++ b/core/file/批量销假模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23490" windowHeight="13140"/>
+    <workbookView windowWidth="15906" windowHeight="7606"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,11 +39,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
@@ -56,14 +56,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,14 +108,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,71 +129,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,30 +155,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,25 +208,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,157 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,17 +432,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,8 +459,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,35 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,10 +520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -532,137 +532,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -670,19 +670,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -752,6 +743,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1191895</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1213485</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5811520" y="440055"/>
+          <a:ext cx="4246245" cy="4377055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,30 +1053,30 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.50442477876106" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75221238938053" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9" style="5" customWidth="1"/>
-    <col min="15" max="15" width="22.5" style="5" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="9" style="7" customWidth="1"/>
-    <col min="18" max="18" width="15.875" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.1238938053097" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.6283185840708" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.2477876106195" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3716814159292" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.2477876106195" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.8761061946903" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5044247787611" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3716814159292" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9" style="5" customWidth="1"/>
+    <col min="18" max="18" width="15.8761061946903" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1051,7 +1089,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1063,10 +1101,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>44105.5833333333</v>
+        <v>44541.5833333333</v>
       </c>
       <c r="D2" s="2">
-        <v>44501.5840277778</v>
+        <v>44542.0007060185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1077,15 +1115,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>44531</v>
+        <v>44505.875</v>
       </c>
       <c r="D3" s="2">
-        <v>44540.5840277778</v>
+        <v>44505.9159722222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>